--- a/ProjectTC.xlsx
+++ b/ProjectTC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Application_Closing</t>
   </si>
   <si>
-    <t>Application_Closure</t>
-  </si>
-  <si>
     <t>1. Open browser</t>
   </si>
   <si>
@@ -175,13 +172,40 @@
   </si>
   <si>
     <t>7. After logged in, keep the application idle for longer time</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>7. Check whether the username and password is visible in the address bar</t>
+  </si>
+  <si>
+    <t>7. The username and password should not be displayed in the address bar</t>
+  </si>
+  <si>
+    <t>7. The username and password is not displayed in the address bar</t>
+  </si>
+  <si>
+    <t>7. The application should prompt to enter the password again</t>
+  </si>
+  <si>
+    <t>7. The application is prompting to enter the password again</t>
+  </si>
+  <si>
+    <t>7. User will close the application directly using close button</t>
+  </si>
+  <si>
+    <t>7. The application should prompt 'Are you sure you want to exit?'</t>
+  </si>
+  <si>
+    <t>7. The application is prompting and application is getting closed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +219,13 @@
       <name val="Bell MT"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +244,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,10 +260,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -254,9 +292,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Norm??" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,11 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,41 +679,41 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I4" s="6"/>
     </row>
@@ -677,18 +721,18 @@
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -697,14 +741,14 @@
       <c r="B6" s="5"/>
       <c r="D6" s="8"/>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -713,14 +757,14 @@
       <c r="B7" s="5"/>
       <c r="D7" s="8"/>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -729,14 +773,14 @@
       <c r="B8" s="5"/>
       <c r="D8" s="8"/>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -745,14 +789,14 @@
       <c r="B9" s="5"/>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -779,41 +823,41 @@
         <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="6"/>
     </row>
@@ -821,18 +865,18 @@
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -841,14 +885,14 @@
       <c r="B14" s="5"/>
       <c r="D14" s="8"/>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="6"/>
     </row>
@@ -857,14 +901,14 @@
       <c r="B15" s="5"/>
       <c r="D15" s="8"/>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I15" s="6"/>
     </row>
@@ -873,14 +917,14 @@
       <c r="B16" s="5"/>
       <c r="D16" s="8"/>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="6"/>
     </row>
@@ -889,14 +933,14 @@
       <c r="B17" s="5"/>
       <c r="D17" s="8"/>
       <c r="E17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="6"/>
     </row>
@@ -923,102 +967,126 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="D22" s="8"/>
       <c r="E22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="D23" s="8"/>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="D24" s="8"/>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="2">
-        <v>7</v>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="G25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
@@ -1043,102 +1111,126 @@
         <v>17</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="D30" s="8"/>
       <c r="E30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="D31" s="8"/>
       <c r="E31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="D32" s="8"/>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="D33" s="8"/>
       <c r="E33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="G33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1163,100 +1255,124 @@
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="2">
-        <v>7</v>
+      <c r="E41" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="I41" s="6"/>
+      <c r="G41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="9"/>
     </row>
     <row r="42" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
@@ -1273,358 +1389,8 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="2">
-        <v>7</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="5"/>
-      <c r="G52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="5"/>
-      <c r="E53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="2">
-        <v>4</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="2">
-        <v>5</v>
-      </c>
-      <c r="F55" s="5"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2">
-        <v>6</v>
-      </c>
-      <c r="F56" s="5"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="2">
-        <v>7</v>
-      </c>
-      <c r="F57" s="5"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="5"/>
-      <c r="E61" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="2">
-        <v>5</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2">
-        <v>6</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2">
-        <v>7</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="29">
     <mergeCell ref="I19:I25"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="B27:B33"/>
@@ -1654,21 +1420,6 @@
     <mergeCell ref="F19:F25"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="I35:I41"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="B43:B49"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B59:B65"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="D59:D65"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="I59:I65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
